--- a/include/Framework.xlsx
+++ b/include/Framework.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlr/Qlik Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HowTo" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2648" uniqueCount="1282">
   <si>
     <t>Name</t>
   </si>
@@ -1480,9 +1480,6 @@
     <t>Cross Selling</t>
   </si>
   <si>
-    <t>Produke</t>
-  </si>
-  <si>
     <t>Top5Customer</t>
   </si>
   <si>
@@ -1589,9 +1586,6 @@
   </si>
   <si>
     <t>DynamicPriceGroups</t>
-  </si>
-  <si>
-    <t>Dynamische Preisgruppen</t>
   </si>
   <si>
     <t>dynamic Pricegroups</t>
@@ -3109,9 +3103,6 @@
     <t>sum(@(CY)[Line Margin]) / sum(@(LY) [Line Margin])</t>
   </si>
   <si>
-    <t>{1&lt;Jahr={"@(=max(Jahr)-1)"},Quartal=@::Quartal,Region=@::Region&gt;}</t>
-  </si>
-  <si>
     <t>orderDifCYvsLY_fixed</t>
   </si>
   <si>
@@ -3232,26 +3223,1108 @@
     <t>max(Shipmentdays)</t>
   </si>
   <si>
-    <t>{1&lt;Year={"@(=max(Year)-1)"},Quarter=@::Quarter,Division=@::Division&gt;}</t>
-  </si>
-  <si>
-    <t>{1&lt;Jahr={"@(=max({1}Jahr))"},Quartal=@::Quartal,Region=@::Region&gt;}</t>
-  </si>
-  <si>
     <t>{@&lt;Jahr={"@(=max({1}Jahr))"}&gt;}</t>
   </si>
   <si>
     <t>{@&lt;Year={"@(=max({1}Year))"}&gt;}</t>
   </si>
   <si>
-    <t>{1&lt;Year={"@(=max({1}Year))"},Quarter=@::Quarter,Division=@::Division&gt;}</t>
+    <t>{1&lt;Jahr={"@(=max({1}Jahr))"},Quartal=@::Quartal,Region=@::Region,%Bestelldatum=,%Lieferdatum=&gt;}</t>
+  </si>
+  <si>
+    <t>{1&lt;Year={"@(=max({1}Year))"},Quarter=@::Quarter,Division=@::Division,%OrderDate=,%Shipmentdate=&gt;}</t>
+  </si>
+  <si>
+    <t>ShipmentDate</t>
+  </si>
+  <si>
+    <t>OrderLineNo</t>
+  </si>
+  <si>
+    <t>CountryCustomer</t>
+  </si>
+  <si>
+    <t>CountryOffice</t>
+  </si>
+  <si>
+    <t>CountrySupplier</t>
+  </si>
+  <si>
+    <t>Bestelldatum</t>
+  </si>
+  <si>
+    <t>Lieferdatum</t>
+  </si>
+  <si>
+    <t>Month Year</t>
+  </si>
+  <si>
+    <t>Week Year</t>
+  </si>
+  <si>
+    <t>Orderdate</t>
+  </si>
+  <si>
+    <t>Shipmentdate</t>
+  </si>
+  <si>
+    <t>CustomerRang</t>
+  </si>
+  <si>
+    <t>Kunde Rang</t>
+  </si>
+  <si>
+    <t>PriceGroups</t>
+  </si>
+  <si>
+    <t>Preisgruppen</t>
+  </si>
+  <si>
+    <t>DeliveryGroups</t>
+  </si>
+  <si>
+    <t>Lieferzeitgruppen</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Mitarbeiter Quelle</t>
+  </si>
+  <si>
+    <t>DrillTime</t>
+  </si>
+  <si>
+    <t>DrillTimeFiscal</t>
+  </si>
+  <si>
+    <t>DrillTimeShipment</t>
+  </si>
+  <si>
+    <t>Zeit Drill</t>
+  </si>
+  <si>
+    <t>Zeit Drill (Fiscal)</t>
+  </si>
+  <si>
+    <t>Zeit Drill (Lieferung)</t>
+  </si>
+  <si>
+    <t>Customer Rang</t>
+  </si>
+  <si>
+    <t>Pricegroups</t>
+  </si>
+  <si>
+    <t>Deliverygroups</t>
+  </si>
+  <si>
+    <t>Employee Source</t>
+  </si>
+  <si>
+    <t>Time Drill</t>
+  </si>
+  <si>
+    <t>Time Drlll (Fiscal)</t>
+  </si>
+  <si>
+    <t>Time Drill (Shipments)</t>
+  </si>
+  <si>
+    <t>KPISales</t>
+  </si>
+  <si>
+    <t>KPIMargin</t>
+  </si>
+  <si>
+    <t>KPIDealSize</t>
+  </si>
+  <si>
+    <t># Umsatz</t>
+  </si>
+  <si>
+    <t># Gewinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Auftragswert Ø </t>
+  </si>
+  <si>
+    <t>KPIDiscount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Rabatt Ø </t>
+  </si>
+  <si>
+    <t># Sales</t>
+  </si>
+  <si>
+    <t># Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Dealsize Ø </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Discount Ø </t>
+  </si>
+  <si>
+    <t>BestellNr</t>
+  </si>
+  <si>
+    <t>Order No</t>
+  </si>
+  <si>
+    <t>YearQuarter</t>
+  </si>
+  <si>
+    <t>Year Quarter</t>
+  </si>
+  <si>
+    <t>YearShipment</t>
+  </si>
+  <si>
+    <t>YearFiscal</t>
+  </si>
+  <si>
+    <t>Jahr (Fiscal)</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>MonthFiscal</t>
+  </si>
+  <si>
+    <t>Monat (Fiscal)</t>
+  </si>
+  <si>
+    <t>MonthShipment</t>
+  </si>
+  <si>
+    <t>QuarterFiscal</t>
+  </si>
+  <si>
+    <t>Quartal (Fiscal)</t>
+  </si>
+  <si>
+    <t>QuarterShipment</t>
+  </si>
+  <si>
+    <t>Quartel (Lieferung)</t>
+  </si>
+  <si>
+    <t>DayShipment</t>
+  </si>
+  <si>
+    <t>Tag (Lieferung)</t>
+  </si>
+  <si>
+    <t>Year(Fiscal)</t>
+  </si>
+  <si>
+    <t>Month (Fiscal)</t>
+  </si>
+  <si>
+    <t>Quarter (Fiscal)</t>
+  </si>
+  <si>
+    <t>CustomerArea</t>
+  </si>
+  <si>
+    <t>CustomerCountryPoint</t>
+  </si>
+  <si>
+    <t>Kunde Geo Bereich</t>
+  </si>
+  <si>
+    <t>Kunde Stadt Geo Punkt</t>
+  </si>
+  <si>
+    <t>Kunde Land Geo Punkt</t>
+  </si>
+  <si>
+    <t>KPICustomerActiv</t>
+  </si>
+  <si>
+    <t>KPIProductsActiv</t>
+  </si>
+  <si>
+    <t># Kunden aktiv</t>
+  </si>
+  <si>
+    <t># Produkte aktiv</t>
+  </si>
+  <si>
+    <t>KPISalesBefore</t>
+  </si>
+  <si>
+    <t>#-1 Umsatz</t>
+  </si>
+  <si>
+    <t>CataloquePrice</t>
+  </si>
+  <si>
+    <t>CataloqueCosts</t>
+  </si>
+  <si>
+    <t>Deliverytime</t>
+  </si>
+  <si>
+    <t>Deliverytimemax</t>
+  </si>
+  <si>
+    <t>Lieferzeit max</t>
+  </si>
+  <si>
+    <t>N° Produkte</t>
+  </si>
+  <si>
+    <t>NumberOfRegions</t>
+  </si>
+  <si>
+    <t>Ø  Lieferzeit</t>
+  </si>
+  <si>
+    <t>Ø Rabatt</t>
+  </si>
+  <si>
+    <t>SalesComplete</t>
+  </si>
+  <si>
+    <t>Umsatz (Komplett)</t>
+  </si>
+  <si>
+    <t>KPICosts</t>
+  </si>
+  <si>
+    <t># Kosten</t>
+  </si>
+  <si>
+    <t>Umsatz nach Region und Quartal</t>
+  </si>
+  <si>
+    <t>SalesByRegionQuarter</t>
+  </si>
+  <si>
+    <t>SalesByCountry</t>
+  </si>
+  <si>
+    <t>Umsatzverteilung nach Land</t>
+  </si>
+  <si>
+    <t>SalesByRegion</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Übersicht</t>
+  </si>
+  <si>
+    <t>Umsatz nach Region</t>
+  </si>
+  <si>
+    <t>Umsatz nach Land</t>
+  </si>
+  <si>
+    <t>Umsatz vs Ø Rabatt</t>
+  </si>
+  <si>
+    <t>Ø Auftragswert vs N° Bestellungen nach Kunde</t>
+  </si>
+  <si>
+    <t>Umsatz vs Quota</t>
+  </si>
+  <si>
+    <t>SalesVsDiscount</t>
+  </si>
+  <si>
+    <t>avgDealSizeVsNoOfOrders</t>
+  </si>
+  <si>
+    <t>SalesVsQuota</t>
+  </si>
+  <si>
+    <t>Ø Auftragswert vs N° Kunden</t>
+  </si>
+  <si>
+    <t>Ø Deal Size vs N° Customers</t>
+  </si>
+  <si>
+    <t>avgDealSizeNumberOfOrders</t>
+  </si>
+  <si>
+    <t>SalesDiscountVsNoOfOrders</t>
+  </si>
+  <si>
+    <t>Umsatz und Discount vs N° Bestellungen</t>
+  </si>
+  <si>
+    <t>Order LineN°</t>
+  </si>
+  <si>
+    <t>Customer Geo Area</t>
+  </si>
+  <si>
+    <t>Customer City Geopoint</t>
+  </si>
+  <si>
+    <t>Customer Country Geopoint</t>
+  </si>
+  <si>
+    <t># Customers activ</t>
+  </si>
+  <si>
+    <t># Procuts activ</t>
+  </si>
+  <si>
+    <t>#-1 Sales</t>
+  </si>
+  <si>
+    <t>Cataloque Price</t>
+  </si>
+  <si>
+    <t>Cataloque Costs</t>
+  </si>
+  <si>
+    <t>Deliverytime max</t>
+  </si>
+  <si>
+    <t>N° Products</t>
+  </si>
+  <si>
+    <t>N° Diisvision</t>
+  </si>
+  <si>
+    <t>Ø Deliverytime</t>
+  </si>
+  <si>
+    <t>Ø Discount</t>
+  </si>
+  <si>
+    <t>Sales by Region and Quarter</t>
+  </si>
+  <si>
+    <t>Sales (complete)</t>
+  </si>
+  <si>
+    <t>Salesshare by Country</t>
+  </si>
+  <si>
+    <t>SalesShareByCustomerCountry</t>
+  </si>
+  <si>
+    <t>diffSalesCYvsLY</t>
+  </si>
+  <si>
+    <t>Lieferzeiten pro Land</t>
+  </si>
+  <si>
+    <t>Lieferzeit nach Lieferant</t>
+  </si>
+  <si>
+    <t>Lieferzeit max pro Bestellung</t>
+  </si>
+  <si>
+    <t>DeliverytimeByCountry</t>
+  </si>
+  <si>
+    <t>DeliverytimeByShipper</t>
+  </si>
+  <si>
+    <t>DeliverytimemaxPerOrder</t>
+  </si>
+  <si>
+    <t>CataloquePriceVsOrdersSales</t>
+  </si>
+  <si>
+    <t>Katalogpreis vs Umsatz und N° Bestellungen</t>
+  </si>
+  <si>
+    <t>CostsByDrillCatProduct</t>
+  </si>
+  <si>
+    <t>Kosten nach Drilldown Produkt Kategorie</t>
+  </si>
+  <si>
+    <t>Divsions</t>
+  </si>
+  <si>
+    <t>Regionen</t>
+  </si>
+  <si>
+    <t>ColorMapCustomerRang</t>
+  </si>
+  <si>
+    <t>ColorMapDivisions</t>
+  </si>
+  <si>
+    <t>Farben nach Region &gt; Land</t>
+  </si>
+  <si>
+    <t>DivisionDrill</t>
+  </si>
+  <si>
+    <t>Region Drill</t>
+  </si>
+  <si>
+    <t>ColorMapProductCat</t>
+  </si>
+  <si>
+    <t>Farben nach Produkt Kategorie</t>
+  </si>
+  <si>
+    <t>Dyn. Preisgruppen</t>
+  </si>
+  <si>
+    <t>ReferenceVars</t>
+  </si>
+  <si>
+    <t>ReferenceColors</t>
+  </si>
+  <si>
+    <t>ReferenceOthers</t>
+  </si>
+  <si>
+    <t>ReferenceSetAnalysis</t>
+  </si>
+  <si>
+    <t>Farben</t>
+  </si>
+  <si>
+    <t>Variablen</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Set Analysis</t>
+  </si>
+  <si>
+    <t>Einführung</t>
+  </si>
+  <si>
+    <t>ButtonVar1</t>
+  </si>
+  <si>
+    <t>ButtonVar2</t>
+  </si>
+  <si>
+    <t>ButtonVar3</t>
+  </si>
+  <si>
+    <t>ButtonVar4</t>
+  </si>
+  <si>
+    <t>Dyn. Formeln</t>
+  </si>
+  <si>
+    <t>Dyn. Dimension</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>ButtonVar5</t>
+  </si>
+  <si>
+    <t>Parameter 2</t>
+  </si>
+  <si>
+    <t>ButtonColor1</t>
+  </si>
+  <si>
+    <t>ButtonColor2</t>
+  </si>
+  <si>
+    <t>ButtonColor3</t>
+  </si>
+  <si>
+    <t>ButtonColor4</t>
+  </si>
+  <si>
+    <t>Farbfunktionen</t>
+  </si>
+  <si>
+    <t>Farbige Dimensionen</t>
+  </si>
+  <si>
+    <t>Farbmapping</t>
+  </si>
+  <si>
+    <t>eigene Farbcodes erstellen</t>
+  </si>
+  <si>
+    <t>TOTAL und ALL</t>
+  </si>
+  <si>
+    <t>get* Funktionen</t>
+  </si>
+  <si>
+    <t>Aggr Frequencies</t>
+  </si>
+  <si>
+    <t>Aggr Top3</t>
+  </si>
+  <si>
+    <t>QS Functions</t>
+  </si>
+  <si>
+    <t>ButtonSA1</t>
+  </si>
+  <si>
+    <t>ButtonSA2</t>
+  </si>
+  <si>
+    <t>ButtonSA3</t>
+  </si>
+  <si>
+    <t>ButtonSA4</t>
+  </si>
+  <si>
+    <t>ButtonSA5</t>
+  </si>
+  <si>
+    <t>ButtonSA6</t>
+  </si>
+  <si>
+    <t>ButtonSA7</t>
+  </si>
+  <si>
+    <t>ButtonSA8</t>
+  </si>
+  <si>
+    <t>ButtonSA9</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Modifikatoren</t>
+  </si>
+  <si>
+    <t>Operatoren</t>
+  </si>
+  <si>
+    <t>AdHoc</t>
+  </si>
+  <si>
+    <t>Vergleiche</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>P und E</t>
+  </si>
+  <si>
+    <t>P und E Var.</t>
+  </si>
+  <si>
+    <t>ButtonSA10</t>
+  </si>
+  <si>
+    <t>letzter Reload:</t>
+  </si>
+  <si>
+    <t>angemeldet als:</t>
+  </si>
+  <si>
+    <t>Heute ist der:</t>
+  </si>
+  <si>
+    <t>Footer1</t>
+  </si>
+  <si>
+    <t>Footer2</t>
+  </si>
+  <si>
+    <t>Footer3</t>
+  </si>
+  <si>
+    <t>ButtonOther1</t>
+  </si>
+  <si>
+    <t>ButtonOther2</t>
+  </si>
+  <si>
+    <t>ButtonOther3</t>
+  </si>
+  <si>
+    <t>ButtonOther4</t>
+  </si>
+  <si>
+    <t>ButtonOther5</t>
+  </si>
+  <si>
+    <t>ButtonOther6</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Dyn. Expressions</t>
+  </si>
+  <si>
+    <t>Dyn. Dimensions</t>
+  </si>
+  <si>
+    <t>Colorfunctions</t>
+  </si>
+  <si>
+    <t>Coloring Dimensions</t>
+  </si>
+  <si>
+    <t>Colormapping</t>
+  </si>
+  <si>
+    <t>create own colorcodes</t>
+  </si>
+  <si>
+    <t>Total and ALL</t>
+  </si>
+  <si>
+    <t>get * Functions</t>
+  </si>
+  <si>
+    <t>Aggr Top4</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Division Drill</t>
+  </si>
+  <si>
+    <t>Colored by Product Category</t>
+  </si>
+  <si>
+    <t>Colored by Division &gt; Country</t>
+  </si>
+  <si>
+    <t>Deliverytime per Order</t>
+  </si>
+  <si>
+    <t>Costs per Drill Product Category</t>
+  </si>
+  <si>
+    <t>Cataloque Price vs Sales and N° Orders</t>
+  </si>
+  <si>
+    <t>Deliverytime by Shipper</t>
+  </si>
+  <si>
+    <t>Deliverytime by Country</t>
+  </si>
+  <si>
+    <t>Sales by Division</t>
+  </si>
+  <si>
+    <t>Sales by Country</t>
+  </si>
+  <si>
+    <t># Costs</t>
+  </si>
+  <si>
+    <t>Sales vs Ø Discount</t>
+  </si>
+  <si>
+    <t>Ø Deal Size vs N° Customers by Customer</t>
+  </si>
+  <si>
+    <t>Sales vs Quota</t>
+  </si>
+  <si>
+    <t>Sales and Rabatt vs N° Orders</t>
+  </si>
+  <si>
+    <t>Δ Sales CY vs LY</t>
+  </si>
+  <si>
+    <t>Modificators</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>P and E</t>
+  </si>
+  <si>
+    <t>P and E Var.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last Relaod: </t>
+  </si>
+  <si>
+    <t>logged in as:</t>
+  </si>
+  <si>
+    <t>today is:</t>
+  </si>
+  <si>
+    <t>regular qlik behavior</t>
+  </si>
+  <si>
+    <t>{1&lt;Jahr={"@(=max({1}Jahr)-1)"},Quartal=@::Quartal,Region=@::Region,%Bestelldatum=,%Lieferdatum=&gt;}</t>
+  </si>
+  <si>
+    <t>{1&lt;Year={"@(=max({1}Year)-1)"},Quarter=@::Quarter,Division=@::Division,%Orderdate=,%Shipmentdate=&gt;}</t>
+  </si>
+  <si>
+    <t>RegionalSales</t>
+  </si>
+  <si>
+    <t>Regionale Verkäufe</t>
+  </si>
+  <si>
+    <t>Regiional Sales</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>NumbersAtGlance</t>
+  </si>
+  <si>
+    <t>Y2Y</t>
+  </si>
+  <si>
+    <t>Pricing2</t>
+  </si>
+  <si>
+    <t>PowerPivot</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
+    <t>AdvancedPricing</t>
+  </si>
+  <si>
+    <t>AdvancedAnalyse</t>
+  </si>
+  <si>
+    <t>BI-Governance</t>
+  </si>
+  <si>
+    <t>Reference-Info</t>
+  </si>
+  <si>
+    <t>VarsIntro</t>
+  </si>
+  <si>
+    <t>DynExpressions</t>
+  </si>
+  <si>
+    <t>DynDimensions</t>
+  </si>
+  <si>
+    <t>ColorFunc</t>
+  </si>
+  <si>
+    <t>ColorDyn</t>
+  </si>
+  <si>
+    <t>ColorMapping</t>
+  </si>
+  <si>
+    <t>VarParam</t>
+  </si>
+  <si>
+    <t>OwnColorCode</t>
+  </si>
+  <si>
+    <t>TotalAndAll</t>
+  </si>
+  <si>
+    <t>GetFunc</t>
+  </si>
+  <si>
+    <t>Aggr</t>
+  </si>
+  <si>
+    <t>AggrTop3</t>
+  </si>
+  <si>
+    <t>Q-Functions</t>
+  </si>
+  <si>
+    <t>SA-Ident</t>
+  </si>
+  <si>
+    <t>SA-Modifier</t>
+  </si>
+  <si>
+    <t>SA-Operators</t>
+  </si>
+  <si>
+    <t>SA-Adhoc</t>
+  </si>
+  <si>
+    <t>SA-Compare</t>
+  </si>
+  <si>
+    <t>SA-P</t>
+  </si>
+  <si>
+    <t>SA-E</t>
+  </si>
+  <si>
+    <t>SA-PE</t>
+  </si>
+  <si>
+    <t>SA-PEVar</t>
+  </si>
+  <si>
+    <t>SA-Cross</t>
+  </si>
+  <si>
+    <t>Preisgestaltung</t>
+  </si>
+  <si>
+    <t>Priocings</t>
+  </si>
+  <si>
+    <t>Numbers at glance</t>
+  </si>
+  <si>
+    <t>Jahr vs Jahr</t>
+  </si>
+  <si>
+    <t>Year to year</t>
+  </si>
+  <si>
+    <t>Preisgestaltung 2</t>
+  </si>
+  <si>
+    <t>Pricings 2</t>
+  </si>
+  <si>
+    <t>Erweiterte Pivotierung</t>
+  </si>
+  <si>
+    <t>Power Pivot</t>
+  </si>
+  <si>
+    <t>Lieferungen</t>
+  </si>
+  <si>
+    <t>Erweiterte Preisanalyse</t>
+  </si>
+  <si>
+    <t>Advanced Pricing</t>
+  </si>
+  <si>
+    <t>Erweiterte Analyse</t>
+  </si>
+  <si>
+    <t>Referenz Info</t>
+  </si>
+  <si>
+    <t>Refenrence Info</t>
+  </si>
+  <si>
+    <t>Variablen Einführung</t>
+  </si>
+  <si>
+    <t>Variables Introduction</t>
+  </si>
+  <si>
+    <t>Dynamische Formeln</t>
+  </si>
+  <si>
+    <t>Dynamic Expressions</t>
+  </si>
+  <si>
+    <t>Dynamische Dimensionen</t>
+  </si>
+  <si>
+    <t>Dynamic Dimensions</t>
+  </si>
+  <si>
+    <t>Varibalen mit Parametern</t>
+  </si>
+  <si>
+    <t>Variables with parameters</t>
+  </si>
+  <si>
+    <t>Color Functions</t>
+  </si>
+  <si>
+    <t>Color Dimensions</t>
+  </si>
+  <si>
+    <t>Eigene Farbcodes erstellen</t>
+  </si>
+  <si>
+    <t>Own Color Codes</t>
+  </si>
+  <si>
+    <t>Total und ALL</t>
+  </si>
+  <si>
+    <t>TOTAL and ALL</t>
+  </si>
+  <si>
+    <t>Get* Funktionen</t>
+  </si>
+  <si>
+    <t>Get * Functions</t>
+  </si>
+  <si>
+    <t>Aggr()</t>
+  </si>
+  <si>
+    <t>Aggr() Top3</t>
+  </si>
+  <si>
+    <t>Qlik Funktionen</t>
+  </si>
+  <si>
+    <t>Qlik Functions</t>
+  </si>
+  <si>
+    <t>Set Analysis - Identifier</t>
+  </si>
+  <si>
+    <t>Set Analysis - Modifier</t>
+  </si>
+  <si>
+    <t>Set Analysis - Operatoren</t>
+  </si>
+  <si>
+    <t>Set Analysis - Adhoc</t>
+  </si>
+  <si>
+    <t>Set Analysis - Vergleiche</t>
+  </si>
+  <si>
+    <t>Set Analysis - P()</t>
+  </si>
+  <si>
+    <t>Set Analysis - E()</t>
+  </si>
+  <si>
+    <t>Set Analysis - P() und E()</t>
+  </si>
+  <si>
+    <t>Set Analysis - P() und E() Variable</t>
+  </si>
+  <si>
+    <t>Set Analysis - Kreuzverkauf</t>
+  </si>
+  <si>
+    <t>Set Analysis - Operators</t>
+  </si>
+  <si>
+    <t>Set Analysis - Compare</t>
+  </si>
+  <si>
+    <t>Set Analysis - P() and E()</t>
+  </si>
+  <si>
+    <t>Set Analysis - P() and E() Variable</t>
+  </si>
+  <si>
+    <t>Set Analysis - Crossselling</t>
+  </si>
+  <si>
+    <t>Zahlen im Glanz</t>
+  </si>
+  <si>
+    <t>Produkte</t>
+  </si>
+  <si>
+    <t>KPIInfo</t>
+  </si>
+  <si>
+    <t>Kennzahl für das aktuelle Geschäftjahr - Nur Auswahl in Region und Quartal werden berücksichtigt</t>
+  </si>
+  <si>
+    <t>Kennzahl für das avorherige Geschäftjahr - Nur Auswahl in Region und Quartal werden berücksichtigt</t>
+  </si>
+  <si>
+    <t>RegularExpression</t>
+  </si>
+  <si>
+    <t>Reguläre  Formel alle Filter werden berücksichtigt</t>
+  </si>
+  <si>
+    <t>MasterCY</t>
+  </si>
+  <si>
+    <t>MasterLY</t>
+  </si>
+  <si>
+    <t>Kennzahl nur für den größten Wert aus der Selektion (Jahr-1).
+Weitere Selektion sind erlaubt.</t>
+  </si>
+  <si>
+    <t>Kennzahl nur für den größten Wert aus der Selektion (Jahr).
+Weitere Selektion sind erlaubt.</t>
+  </si>
+  <si>
+    <t>diffNumberOfOrdersCYvsLY</t>
+  </si>
+  <si>
+    <t>diffNumberOfOrdersRegCYvsLY</t>
+  </si>
+  <si>
+    <t>Δ Bestellungen CY vs LY</t>
+  </si>
+  <si>
+    <t>Δ in % Bestellungen CY vs LY</t>
+  </si>
+  <si>
+    <t>diffMarginCYvsLY</t>
+  </si>
+  <si>
+    <t>Δ Gewinnspanne CY vs LY</t>
+  </si>
+  <si>
+    <t>diffMarginRegCYvsLY</t>
+  </si>
+  <si>
+    <t>Δ Kosten CY vs LY</t>
+  </si>
+  <si>
+    <t>diffCostsCYvsLY</t>
+  </si>
+  <si>
+    <t>diffCostsRegCYvsLY</t>
+  </si>
+  <si>
+    <t>Δ in % Umsatz CY vs LY</t>
+  </si>
+  <si>
+    <t>diffSalesRegCYvsLY</t>
+  </si>
+  <si>
+    <t>Δ in % Sales CY vs LY</t>
+  </si>
+  <si>
+    <t>Δ in % Gewinnspanne CY vs LY</t>
+  </si>
+  <si>
+    <t>Δ in % Kosten CY vs LY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3328,6 +4401,16 @@
       <color indexed="207"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3481,7 +4564,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3521,18 +4604,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -3540,6 +4624,98 @@
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3643,62 +4819,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="7"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4189,31 +5309,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:G209" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:G209" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:G209"/>
   <sortState ref="A2:G169">
     <sortCondition ref="E1:E169"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Name" dataDxfId="6"/>
-    <tableColumn id="2" name="Value" dataDxfId="5"/>
-    <tableColumn id="3" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" name="ReplaceVar" dataDxfId="3"/>
-    <tableColumn id="5" name="used Table(s)" dataDxfId="2"/>
-    <tableColumn id="6" name="Lang" dataDxfId="1"/>
-    <tableColumn id="7" name="GenerateSA" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" name="Value" dataDxfId="10"/>
+    <tableColumn id="3" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" name="ReplaceVar" dataDxfId="8"/>
+    <tableColumn id="5" name="used Table(s)" dataDxfId="7"/>
+    <tableColumn id="6" name="Lang" dataDxfId="6"/>
+    <tableColumn id="7" name="GenerateSA" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:C78" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:C78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:C234" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+  <autoFilter ref="A1:C234"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Index" dataDxfId="11"/>
-    <tableColumn id="3" name="DE" dataDxfId="10"/>
-    <tableColumn id="4" name="US" dataDxfId="9"/>
+    <tableColumn id="1" name="Index" dataDxfId="3"/>
+    <tableColumn id="3" name="DE" dataDxfId="2"/>
+    <tableColumn id="4" name="US" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4512,7 +5632,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5746,35 +6866,35 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>734</v>
-      </c>
       <c r="C113" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -5782,10 +6902,10 @@
         <v>68</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -5802,8 +6922,8 @@
   <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6134,7 +7254,7 @@
         <v>228</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6151,7 +7271,7 @@
         <v>229</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -6302,10 +7422,10 @@
         <v>300</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -6319,10 +7439,10 @@
         <v>300</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>751</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -6437,7 +7557,7 @@
         <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>300</v>
@@ -6665,7 +7785,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E57" s="8"/>
     </row>
@@ -6678,7 +7798,7 @@
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E58" s="8"/>
     </row>
@@ -6696,7 +7816,7 @@
         <v>253</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -6713,7 +7833,7 @@
         <v>252</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -6730,7 +7850,7 @@
         <v>251</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -6747,7 +7867,7 @@
         <v>250</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -6856,7 +7976,7 @@
         <v>259</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -7289,7 +8409,7 @@
         <v>282</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -7306,7 +8426,7 @@
         <v>283</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -7879,13 +8999,13 @@
         <v>146</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>299</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E135" s="8"/>
     </row>
@@ -7894,13 +9014,13 @@
         <v>146</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>300</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E136" s="11"/>
     </row>
@@ -7909,7 +9029,7 @@
         <v>146</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>299</v>
@@ -7924,11 +9044,11 @@
         <v>146</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E138" s="11"/>
     </row>
@@ -7937,11 +9057,11 @@
         <v>24</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E139" s="8"/>
     </row>
@@ -7950,11 +9070,11 @@
         <v>24</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E140" s="8"/>
     </row>
@@ -7963,7 +9083,7 @@
         <v>24</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="11"/>
@@ -7974,7 +9094,7 @@
         <v>128</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>300</v>
@@ -7991,7 +9111,7 @@
         <v>128</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C143" s="8"/>
       <c r="D143" s="8" t="s">
@@ -8006,7 +9126,7 @@
         <v>128</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8" t="s">
@@ -8021,7 +9141,7 @@
         <v>128</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8" t="s">
@@ -8036,7 +9156,7 @@
         <v>128</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8" t="s">
@@ -8076,9 +9196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="116" zoomScaleNormal="116" zoomScalePageLayoutView="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8111,18 +9231,18 @@
         <v>149</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="2" t="s">
@@ -8135,13 +9255,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
@@ -8154,13 +9274,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="2" t="s">
@@ -8170,18 +9290,18 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="2" t="s">
@@ -8191,18 +9311,18 @@
         <v>148</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="2" t="s">
@@ -8215,13 +9335,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="2" t="s">
@@ -8234,13 +9354,13 @@
     </row>
     <row r="8" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="2" t="s">
@@ -8253,13 +9373,13 @@
     </row>
     <row r="9" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="2" t="s">
@@ -8278,7 +9398,7 @@
         <v>424</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="2" t="s">
@@ -8288,7 +9408,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8299,7 +9419,7 @@
         <v>425</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="2" t="s">
@@ -8309,7 +9429,7 @@
         <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -8320,7 +9440,7 @@
         <v>428</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="2" t="s">
@@ -8330,7 +9450,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -8341,7 +9461,7 @@
         <v>429</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="2" t="s">
@@ -8351,18 +9471,18 @@
         <v>148</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="2" t="s">
@@ -8375,13 +9495,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>772</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="2" t="s">
@@ -8400,7 +9520,7 @@
         <v>449</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="2" t="s">
@@ -8419,7 +9539,7 @@
         <v>450</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="2" t="s">
@@ -8438,7 +9558,7 @@
         <v>402</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="2" t="s">
@@ -8473,10 +9593,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>150</v>
@@ -8512,13 +9632,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>150</v>
@@ -8533,10 +9653,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="18" t="s">
@@ -8555,10 +9675,10 @@
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>150</v>
@@ -8576,7 +9696,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>407</v>
@@ -8697,7 +9817,7 @@
         <v>397</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>150</v>
@@ -8712,10 +9832,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>879</v>
+        <v>1168</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="18" t="s">
@@ -8731,10 +9851,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>920</v>
+        <v>1169</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="18" t="s">
@@ -8792,10 +9912,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="18" t="s">
@@ -8811,10 +9931,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="18" t="s">
@@ -8830,12 +9950,12 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="C38" s="29"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="18" t="s">
         <v>150</v>
       </c>
@@ -8849,12 +9969,12 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="C39" s="30"/>
+        <v>840</v>
+      </c>
+      <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
         <v>150</v>
       </c>
@@ -8868,12 +9988,12 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="18" t="s">
         <v>150</v>
       </c>
@@ -8887,12 +10007,12 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="C41" s="30"/>
+        <v>834</v>
+      </c>
+      <c r="C41" s="27"/>
       <c r="D41" s="18" t="s">
         <v>150</v>
       </c>
@@ -8906,10 +10026,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="18" t="s">
@@ -8925,10 +10045,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="18" t="s">
@@ -8944,12 +10064,12 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="C44" s="29"/>
+        <v>841</v>
+      </c>
+      <c r="C44" s="26"/>
       <c r="D44" s="18" t="s">
         <v>150</v>
       </c>
@@ -8963,12 +10083,12 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="C45" s="30"/>
+        <v>842</v>
+      </c>
+      <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
         <v>150</v>
       </c>
@@ -8982,12 +10102,12 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C46" s="29"/>
+        <v>835</v>
+      </c>
+      <c r="C46" s="26"/>
       <c r="D46" s="18" t="s">
         <v>150</v>
       </c>
@@ -9001,12 +10121,12 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="C47" s="30"/>
+        <v>836</v>
+      </c>
+      <c r="C47" s="27"/>
       <c r="D47" s="18" t="s">
         <v>150</v>
       </c>
@@ -9036,7 +10156,7 @@
         <v>18</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -9047,7 +10167,7 @@
         <v>399</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="2" t="s">
@@ -9057,7 +10177,7 @@
         <v>148</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -9078,7 +10198,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -9089,7 +10209,7 @@
         <v>400</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="2" t="s">
@@ -9099,18 +10219,18 @@
         <v>148</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="2" t="s">
@@ -9120,15 +10240,15 @@
         <v>18</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
+        <v>753</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="18"/>
@@ -9139,15 +10259,15 @@
         <v>148</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="18" t="s">
@@ -9163,10 +10283,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="18" t="s">
@@ -9182,10 +10302,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="18" t="s">
@@ -9201,10 +10321,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="18" t="s">
@@ -9223,7 +10343,7 @@
         <v>431</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="18" t="s">
@@ -9242,7 +10362,7 @@
         <v>431</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="18" t="s">
@@ -9258,10 +10378,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="18" t="s">
@@ -9277,10 +10397,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="18" t="s">
@@ -9296,10 +10416,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="18" t="s">
@@ -9315,10 +10435,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="18" t="s">
@@ -9337,7 +10457,7 @@
         <v>432</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="18" t="s">
@@ -9356,7 +10476,7 @@
         <v>432</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="18" t="s">
@@ -9375,7 +10495,7 @@
         <v>430</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="18" t="s">
@@ -9394,7 +10514,7 @@
         <v>430</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="18" t="s">
@@ -9410,13 +10530,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="2" t="s">
@@ -9429,13 +10549,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
+        <v>716</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="2" t="s">
@@ -9448,13 +10568,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="2" t="s">
@@ -9464,18 +10584,18 @@
         <v>18</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="2" t="s">
@@ -9485,18 +10605,18 @@
         <v>148</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="2" t="s">
@@ -9506,18 +10626,18 @@
         <v>18</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="2" t="s">
@@ -9527,7 +10647,7 @@
         <v>148</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -9548,7 +10668,7 @@
         <v>18</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -9556,7 +10676,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>442</v>
@@ -9569,7 +10689,7 @@
         <v>148</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -9590,7 +10710,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -9598,7 +10718,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>441</v>
@@ -9611,18 +10731,18 @@
         <v>148</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="2" t="s">
@@ -9632,18 +10752,18 @@
         <v>18</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
+        <v>784</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="2" t="s">
@@ -9653,7 +10773,7 @@
         <v>148</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -9674,7 +10794,7 @@
         <v>18</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -9682,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>440</v>
@@ -9695,7 +10815,7 @@
         <v>148</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -9738,13 +10858,13 @@
     </row>
     <row r="84" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>150</v>
@@ -9759,13 +10879,13 @@
     </row>
     <row r="85" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B85" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>150</v>
@@ -9783,10 +10903,10 @@
         <v>418</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="2" t="s">
@@ -9802,10 +10922,10 @@
         <v>418</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="2" t="s">
@@ -9821,10 +10941,10 @@
         <v>426</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="2" t="s">
@@ -9840,10 +10960,10 @@
         <v>426</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="2" t="s">
@@ -9856,7 +10976,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>220</v>
@@ -9873,7 +10993,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>329</v>
@@ -9890,10 +11010,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="18"/>
@@ -9907,10 +11027,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="18"/>
@@ -9924,10 +11044,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="18" t="s">
@@ -9943,10 +11063,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="18" t="s">
@@ -9962,13 +11082,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="2" t="s">
@@ -9981,13 +11101,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>516</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="2" t="s">
@@ -10000,15 +11120,15 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="18"/>
       <c r="E98" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F98" s="18" t="s">
         <v>18</v>
@@ -10017,15 +11137,15 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="18"/>
       <c r="E99" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F99" s="18" t="s">
         <v>148</v>
@@ -10034,15 +11154,15 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="18"/>
       <c r="E100" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F100" s="18" t="s">
         <v>18</v>
@@ -10051,15 +11171,15 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="18"/>
       <c r="E101" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F101" s="18" t="s">
         <v>148</v>
@@ -10068,17 +11188,17 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F102" s="18" t="s">
         <v>18</v>
@@ -10087,17 +11207,17 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F103" s="18" t="s">
         <v>148</v>
@@ -10106,17 +11226,17 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F104" s="18" t="s">
         <v>18</v>
@@ -10125,17 +11245,17 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F105" s="18" t="s">
         <v>148</v>
@@ -10144,17 +11264,17 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F106" s="18" t="s">
         <v>18</v>
@@ -10163,17 +11283,17 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>148</v>
@@ -10182,15 +11302,15 @@
     </row>
     <row r="108" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="18"/>
       <c r="E108" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>18</v>
@@ -10199,15 +11319,15 @@
     </row>
     <row r="109" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="18"/>
       <c r="E109" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F109" s="18" t="s">
         <v>148</v>
@@ -10216,15 +11336,15 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="18"/>
       <c r="E110" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F110" s="18" t="s">
         <v>18</v>
@@ -10233,15 +11353,15 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="18"/>
       <c r="E111" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F111" s="18" t="s">
         <v>148</v>
@@ -10250,17 +11370,17 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>582</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>584</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F112" s="18" t="s">
         <v>18</v>
@@ -10269,17 +11389,17 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F113" s="18" t="s">
         <v>148</v>
@@ -10288,7 +11408,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>411</v>
@@ -10298,7 +11418,7 @@
         <v>150</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F114" s="18" t="s">
         <v>18</v>
@@ -10307,17 +11427,17 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F115" s="18" t="s">
         <v>148</v>
@@ -10326,15 +11446,15 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>775</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="18"/>
       <c r="E116" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F116" s="18" t="s">
         <v>18</v>
@@ -10343,15 +11463,15 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="18"/>
       <c r="E117" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F117" s="18" t="s">
         <v>148</v>
@@ -10360,15 +11480,15 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="18"/>
       <c r="E118" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F118" s="18" t="s">
         <v>18</v>
@@ -10377,15 +11497,15 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="18"/>
       <c r="E119" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F119" s="18" t="s">
         <v>148</v>
@@ -10394,17 +11514,17 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>18</v>
@@ -10413,17 +11533,17 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F121" s="18" t="s">
         <v>148</v>
@@ -10432,17 +11552,17 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F122" s="18" t="s">
         <v>18</v>
@@ -10451,17 +11571,17 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F123" s="18" t="s">
         <v>148</v>
@@ -10470,17 +11590,17 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F124" s="18" t="s">
         <v>18</v>
@@ -10489,17 +11609,17 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F125" s="18" t="s">
         <v>148</v>
@@ -10508,17 +11628,17 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F126" s="18" t="s">
         <v>18</v>
@@ -10527,17 +11647,17 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F127" s="18" t="s">
         <v>148</v>
@@ -10546,17 +11666,17 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F128" s="18" t="s">
         <v>18</v>
@@ -10565,17 +11685,17 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F129" s="18" t="s">
         <v>148</v>
@@ -10584,7 +11704,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>411</v>
@@ -10594,7 +11714,7 @@
         <v>150</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F130" s="18" t="s">
         <v>18</v>
@@ -10603,17 +11723,17 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F131" s="18" t="s">
         <v>148</v>
@@ -10622,17 +11742,17 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F132" s="18" t="s">
         <v>18</v>
@@ -10641,17 +11761,17 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F133" s="18" t="s">
         <v>148</v>
@@ -10660,17 +11780,17 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F134" s="18" t="s">
         <v>18</v>
@@ -10679,17 +11799,17 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F135" s="18" t="s">
         <v>148</v>
@@ -10698,17 +11818,17 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F136" s="18" t="s">
         <v>18</v>
@@ -10717,17 +11837,17 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F137" s="18" t="s">
         <v>148</v>
@@ -10736,17 +11856,17 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F138" s="18" t="s">
         <v>18</v>
@@ -10755,17 +11875,17 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F139" s="18" t="s">
         <v>148</v>
@@ -10774,17 +11894,17 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="23" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F140" s="18" t="s">
         <v>18</v>
@@ -10793,17 +11913,17 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F141" s="18" t="s">
         <v>148</v>
@@ -10812,17 +11932,17 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F142" s="18" t="s">
         <v>18</v>
@@ -10831,17 +11951,17 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F143" s="18" t="s">
         <v>148</v>
@@ -10850,17 +11970,17 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F144" s="18" t="s">
         <v>18</v>
@@ -10869,17 +11989,17 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F145" s="18" t="s">
         <v>148</v>
@@ -10888,17 +12008,17 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F146" s="18" t="s">
         <v>18</v>
@@ -10907,17 +12027,17 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F147" s="18" t="s">
         <v>148</v>
@@ -10926,17 +12046,17 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F148" s="18" t="s">
         <v>18</v>
@@ -10945,17 +12065,17 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F149" s="18" t="s">
         <v>148</v>
@@ -10964,17 +12084,17 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F150" s="18" t="s">
         <v>18</v>
@@ -10983,17 +12103,17 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F151" s="18" t="s">
         <v>148</v>
@@ -11002,17 +12122,17 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F152" s="18" t="s">
         <v>18</v>
@@ -11021,17 +12141,17 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F153" s="18" t="s">
         <v>148</v>
@@ -11040,17 +12160,17 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F154" s="18" t="s">
         <v>18</v>
@@ -11059,17 +12179,17 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F155" s="18" t="s">
         <v>148</v>
@@ -11078,17 +12198,17 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F156" s="18" t="s">
         <v>18</v>
@@ -11097,17 +12217,17 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F157" s="18" t="s">
         <v>148</v>
@@ -11116,17 +12236,17 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F158" s="18" t="s">
         <v>18</v>
@@ -11135,17 +12255,17 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F159" s="18" t="s">
         <v>148</v>
@@ -11154,17 +12274,17 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F160" s="18" t="s">
         <v>18</v>
@@ -11173,17 +12293,17 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F161" s="18" t="s">
         <v>148</v>
@@ -11192,17 +12312,17 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F162" s="18" t="s">
         <v>18</v>
@@ -11211,17 +12331,17 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F163" s="18" t="s">
         <v>148</v>
@@ -11230,15 +12350,15 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="18"/>
       <c r="E164" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F164" s="18" t="s">
         <v>18</v>
@@ -11247,15 +12367,15 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="18"/>
       <c r="E165" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F165" s="18" t="s">
         <v>148</v>
@@ -11264,15 +12384,15 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="18"/>
       <c r="E166" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F166" s="18" t="s">
         <v>18</v>
@@ -11281,15 +12401,15 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="18"/>
       <c r="E167" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F167" s="18" t="s">
         <v>148</v>
@@ -11298,17 +12418,17 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="B168" t="s">
         <v>781</v>
-      </c>
-      <c r="B168" t="s">
-        <v>783</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F168" s="18" t="s">
         <v>18</v>
@@ -11317,17 +12437,17 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F169" s="18" t="s">
         <v>148</v>
@@ -11336,10 +12456,10 @@
     </row>
     <row r="170" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="18"/>
@@ -11353,10 +12473,10 @@
     </row>
     <row r="171" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="B171" s="20" t="s">
         <v>851</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>853</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="18"/>
@@ -11370,17 +12490,17 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F172" s="18" t="s">
         <v>18</v>
@@ -11389,17 +12509,17 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F173" s="18" t="s">
         <v>148</v>
@@ -11408,10 +12528,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="18"/>
@@ -11422,15 +12542,15 @@
         <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="18"/>
@@ -11441,15 +12561,15 @@
         <v>148</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="18" t="s">
@@ -11465,10 +12585,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="23" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="18" t="s">
@@ -11484,10 +12604,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="23" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="18" t="s">
@@ -11503,10 +12623,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="23" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="18" t="s">
@@ -11522,10 +12642,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="18" t="s">
@@ -11541,10 +12661,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="18" t="s">
@@ -11560,10 +12680,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="18" t="s">
@@ -11579,10 +12699,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="23" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="18" t="s">
@@ -11598,10 +12718,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="18" t="s">
@@ -11617,10 +12737,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="18" t="s">
@@ -11636,10 +12756,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="18" t="s">
@@ -11655,10 +12775,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="18" t="s">
@@ -11674,10 +12794,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="18" t="s">
@@ -11693,10 +12813,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="18" t="s">
@@ -11712,10 +12832,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="18" t="s">
@@ -11731,10 +12851,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="23" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="18" t="s">
@@ -11750,10 +12870,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="23" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="18" t="s">
@@ -11769,10 +12889,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="23" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="18" t="s">
@@ -11788,10 +12908,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="23" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="18" t="s">
@@ -11807,10 +12927,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="18" t="s">
@@ -11826,10 +12946,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="23" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="18" t="s">
@@ -11845,10 +12965,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>901</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="18" t="s">
@@ -11864,10 +12984,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="23" t="s">
+        <v>896</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="18" t="s">
@@ -11883,10 +13003,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="23" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="18" t="s">
@@ -11902,10 +13022,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="23" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="18" t="s">
@@ -11921,10 +13041,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>907</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="18" t="s">
@@ -11940,10 +13060,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="18" t="s">
@@ -11959,10 +13079,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="23" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="18" t="s">
@@ -11978,10 +13098,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="23" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="18" t="s">
@@ -11994,15 +13114,15 @@
         <v>18</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="18" t="s">
@@ -12015,15 +13135,15 @@
         <v>148</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="23" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="18" t="s">
@@ -12036,15 +13156,15 @@
         <v>18</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="18" t="s">
@@ -12057,15 +13177,15 @@
         <v>148</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="18" t="s">
@@ -12078,15 +13198,15 @@
         <v>18</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="18" t="s">
@@ -12099,7 +13219,7 @@
         <v>148</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -12113,11 +13233,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E76:E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12139,763 +13259,2413 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="29" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B55" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C55" s="29" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B56" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C56" s="29" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B57" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C57" s="29" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B58" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C58" s="29" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B59" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C59" s="29" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B60" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C60" s="29" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B61" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C61" s="29" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B62" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C62" s="29" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B63" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C63" s="29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B64" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C64" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B65" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C65" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B66" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C66" s="29" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B67" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C67" s="29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B68" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="C68" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B69" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C69" s="29" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B70" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C70" s="29" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B71" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C71" s="29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B72" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C72" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B73" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C73" s="29" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B74" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C74" s="29" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B75" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C75" s="29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B76" s="29" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="B77" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="C77" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="C24" s="25" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="29" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="B78" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="C78" s="29" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="C79" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="B26" s="25" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
+      <c r="B80" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B81" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C81" s="29" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="B28" s="25" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B82" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="C82" s="29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="B30" s="25" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B84" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
+      <c r="C84" s="29" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="B85" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="C85" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="C32" s="25" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="B86" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="C86" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="B87" s="29" t="s">
         <v>508</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="C87" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="C34" s="25" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="29" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="B88" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C88" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="B36" s="25" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="C89" s="29" t="s">
         <v>551</v>
       </c>
-      <c r="C36" s="25" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>926</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="29" t="s">
+        <v>921</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>927</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="29" t="s">
+        <v>922</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="29" t="s">
+        <v>924</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="29" t="s">
+        <v>923</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="29" t="s">
+        <v>925</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="29" t="s">
+        <v>932</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>935</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="29" t="s">
+        <v>936</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>939</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>940</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="29" t="s">
+        <v>941</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="29" t="s">
+        <v>942</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>945</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="29" t="s">
+        <v>943</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="29" t="s">
+        <v>954</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>957</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="29" t="s">
+        <v>955</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>958</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="29" t="s">
+        <v>956</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>959</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="29" t="s">
+        <v>960</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>961</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="29" t="s">
+        <v>968</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" s="29" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="29" t="s">
+        <v>970</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>972</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="29" t="s">
+        <v>974</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="29" t="s">
+        <v>976</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="29" t="s">
+        <v>977</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>978</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="29" t="s">
+        <v>979</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>980</v>
+      </c>
+      <c r="C122" s="29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="29" t="s">
+        <v>981</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>982</v>
+      </c>
+      <c r="C123" s="29" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>988</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>989</v>
+      </c>
+      <c r="C125" s="29" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="29" t="s">
+        <v>987</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>990</v>
+      </c>
+      <c r="C126" s="29" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>993</v>
+      </c>
+      <c r="C127" s="29" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="29" t="s">
+        <v>992</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>994</v>
+      </c>
+      <c r="C128" s="29" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="29" t="s">
+        <v>995</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="C129" s="29" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="29" t="s">
+        <v>997</v>
+      </c>
+      <c r="B131" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132" s="29" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="29" t="s">
+        <v>999</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C133" s="29" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C134" s="29" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="29" t="s">
+        <v>753</v>
+      </c>
+      <c r="B135" s="30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C135" s="29" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B136" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="29" t="s">
+        <v>907</v>
+      </c>
+      <c r="B137" s="30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B138" s="30" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C138" s="29" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C139" s="29" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="29" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C140" s="29" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="29" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C141" s="29" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="29" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C142" s="29" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="29" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="29" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B144" s="30" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B145" s="30" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="29" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C146" s="29" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C147" s="29" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C148" s="29" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="29" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C149" s="29" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="29" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="29" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="29" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C152" s="29" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B153" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B154" s="30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C154" s="29" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C156" s="29" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="29" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>933</v>
+      </c>
+      <c r="C159" s="29" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="29" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B161" s="30" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="29" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="29" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="29" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="29" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="29" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B169" s="30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="29" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B170" s="30" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="29" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="29" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C172" s="29" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="29" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C173" s="29" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="29" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="29" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C175" s="29" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="29" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B177" s="30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C177" s="30" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="29" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B178" s="30" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C178" s="30" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B179" s="30" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C179" s="30" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="29" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B180" s="30"/>
+      <c r="C180" s="29"/>
+    </row>
+    <row r="181" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="29" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C181" s="30" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="29" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C182" s="30" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C183" s="30" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="29" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C184" s="30" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="29" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C185" s="30" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="29" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C186" s="30" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C187" s="30" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="29" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C188" s="30" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="29" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C189" s="30" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="29" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="C190" s="30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="29" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="29" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B193" s="30" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="B194" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C194" s="29" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A195" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="B195" s="30" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="C195" s="29"/>
+    </row>
+    <row r="196" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A196" s="29" t="s">
         <v>556</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>554</v>
-      </c>
-      <c r="C38" s="25"/>
-    </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="B196" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="C196" s="29"/>
+    </row>
+    <row r="197" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A197" s="29" t="s">
         <v>557</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
+      <c r="B197" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="C197" s="29"/>
+    </row>
+    <row r="198" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A198" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B198" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="C40" s="25"/>
-    </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="C198" s="29"/>
+    </row>
+    <row r="199" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="29" t="s">
         <v>559</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B199" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="C199" s="29"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="29" t="s">
         <v>560</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B200" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="C42" s="25"/>
-    </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="C200" s="29"/>
+    </row>
+    <row r="201" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A201" s="29" t="s">
         <v>561</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B201" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="C43" s="25"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="C201" s="29"/>
+    </row>
+    <row r="202" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A202" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>598</v>
-      </c>
-      <c r="C44" s="25"/>
-    </row>
-    <row r="45" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="B202" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C202" s="29"/>
+    </row>
+    <row r="203" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A203" s="29" t="s">
         <v>563</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+      <c r="B203" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="C203" s="29"/>
+    </row>
+    <row r="204" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A204" s="29" t="s">
         <v>564</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B204" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="C204" s="29"/>
+    </row>
+    <row r="205" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="29" t="s">
         <v>565</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B205" s="30" t="s">
         <v>611</v>
       </c>
-      <c r="C47" s="25"/>
-    </row>
-    <row r="48" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
+      <c r="C205" s="29"/>
+    </row>
+    <row r="206" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A206" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="C48" s="25"/>
-    </row>
-    <row r="49" spans="1:3" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
+      <c r="B206" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="C206" s="29"/>
+    </row>
+    <row r="207" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A207" s="29" t="s">
         <v>567</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>613</v>
-      </c>
-      <c r="C49" s="25"/>
-    </row>
-    <row r="50" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="B207" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="C207" s="29"/>
+    </row>
+    <row r="208" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A208" s="29" t="s">
+        <v>569</v>
+      </c>
+      <c r="B208" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C208" s="29"/>
+    </row>
+    <row r="209" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A209" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>635</v>
-      </c>
-      <c r="C50" s="25"/>
-    </row>
-    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="C51" s="25"/>
-    </row>
-    <row r="52" spans="1:3" ht="208" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="C52" s="25"/>
-    </row>
-    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="C53" s="25"/>
-    </row>
-    <row r="54" spans="1:3" ht="409" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="B209" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="C209" s="29"/>
+    </row>
+    <row r="210" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A210" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="B210" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="C210" s="29"/>
+    </row>
+    <row r="211" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A211" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="B211" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="C211" s="29"/>
+    </row>
+    <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A212" s="29" t="s">
         <v>654</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B212" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="C212" s="29"/>
+    </row>
+    <row r="213" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A213" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="B213" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="C54" s="25"/>
-    </row>
-    <row r="55" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>655</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="C55" s="25"/>
-    </row>
-    <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="C56" s="25"/>
-    </row>
-    <row r="57" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="C213" s="29"/>
+    </row>
+    <row r="214" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A214" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B214" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="C57" s="25"/>
-    </row>
-    <row r="58" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
+      <c r="C214" s="29"/>
+    </row>
+    <row r="215" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+      <c r="A215" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B215" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="C58" s="25"/>
-    </row>
-    <row r="59" spans="1:3" ht="208" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
+      <c r="C215" s="29"/>
+    </row>
+    <row r="216" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A216" s="29" t="s">
         <v>664</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B216" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="C216" s="29"/>
+    </row>
+    <row r="217" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+      <c r="A217" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="C59" s="25"/>
-    </row>
-    <row r="60" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="B217" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="C217" s="29"/>
+    </row>
+    <row r="218" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A218" s="29" t="s">
         <v>666</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="C60" s="25"/>
-    </row>
-    <row r="61" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
+      <c r="B218" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="C218" s="29"/>
+    </row>
+    <row r="219" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A219" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="B219" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="C61" s="25"/>
-    </row>
-    <row r="62" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
-        <v>668</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="C62" s="25"/>
-    </row>
-    <row r="63" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A63" s="25" t="s">
+      <c r="C219" s="29"/>
+    </row>
+    <row r="220" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="B220" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="C63" s="25"/>
-    </row>
-    <row r="64" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="25" t="s">
+      <c r="C220" s="29"/>
+    </row>
+    <row r="221" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A221" s="29" t="s">
+        <v>673</v>
+      </c>
+      <c r="B221" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="C64" s="25"/>
-    </row>
-    <row r="65" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A65" s="25" t="s">
+      <c r="C221" s="29"/>
+    </row>
+    <row r="222" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A222" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B222" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="C65" s="25"/>
-    </row>
-    <row r="66" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="C222" s="29"/>
+    </row>
+    <row r="223" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A223" s="29" t="s">
         <v>677</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B223" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="C66" s="25"/>
-    </row>
-    <row r="67" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A67" s="25" t="s">
+      <c r="C223" s="29"/>
+    </row>
+    <row r="224" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+      <c r="A224" s="29" t="s">
         <v>679</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B224" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="C67" s="25"/>
-    </row>
-    <row r="68" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
+      <c r="C224" s="29"/>
+    </row>
+    <row r="225" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A225" s="29" t="s">
         <v>681</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B225" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="C68" s="25"/>
-    </row>
-    <row r="69" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="C225" s="29"/>
+    </row>
+    <row r="226" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A226" s="29" t="s">
         <v>683</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B226" s="30" t="s">
+        <v>729</v>
+      </c>
+      <c r="C226" s="29"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="29" t="s">
         <v>684</v>
       </c>
-      <c r="C69" s="25"/>
-    </row>
-    <row r="70" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
+      <c r="B227" s="30"/>
+      <c r="C227" s="29"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B228" s="30"/>
+      <c r="C228" s="29"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="29" t="s">
         <v>685</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="C70" s="25"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="25"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="25" t="s">
-        <v>688</v>
-      </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="25"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="25"/>
-    </row>
-    <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="25" t="s">
+      <c r="B229" s="30"/>
+      <c r="C229" s="29"/>
+    </row>
+    <row r="230" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A230" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B230" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="C230" s="29"/>
+    </row>
+    <row r="231" spans="1:3" ht="288" x14ac:dyDescent="0.2">
+      <c r="A231" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B231" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="C231" s="29"/>
+    </row>
+    <row r="232" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A232" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="C74" s="25"/>
-    </row>
-    <row r="75" spans="1:3" ht="288" x14ac:dyDescent="0.2">
-      <c r="A75" s="25" t="s">
-        <v>716</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="C75" s="25"/>
-    </row>
-    <row r="76" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A76" s="25" t="s">
-        <v>717</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C76" s="25"/>
-    </row>
-    <row r="77" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
-        <v>768</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="C77" s="25"/>
-    </row>
-    <row r="78" spans="1:3" ht="304" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
-        <v>686</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="C78" s="25"/>
+      <c r="B232" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="C232" s="29"/>
+    </row>
+    <row r="233" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+      <c r="A233" s="29" t="s">
+        <v>766</v>
+      </c>
+      <c r="B233" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="C233" s="29"/>
+    </row>
+    <row r="234" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+      <c r="A234" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="B234" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="C234" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12925,15 +15695,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
